--- a/doc/Scrum/Retrospective/Retrospective of Week 4.xlsx
+++ b/doc/Scrum/Retrospective/Retrospective of Week 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johannes\template\Scrum\Retrospective\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\template\doc\Scrum\Retrospective\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F7D918-22A7-4ECE-AA76-A61702241FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE98BF-8E8F-4DD3-8995-9832FA6759BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template Retrospective" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Sprint Retrospective</t>
   </si>
@@ -150,6 +150,15 @@
   <si>
     <t>Ignore the .idea folder</t>
   </si>
+  <si>
+    <t>Adjustements from last week</t>
+  </si>
+  <si>
+    <t>old adjustments:</t>
+  </si>
+  <si>
+    <t>what we did with the adjustments:</t>
+  </si>
 </sst>
 </file>
 
@@ -226,8 +235,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -245,8 +254,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,7 +267,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,17 +276,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -300,11 +298,175 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD0E0E3"/>
+          <bgColor rgb="FFD0E0E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -701,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -751,9 +913,9 @@
       <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -776,12 +938,12 @@
     </row>
     <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -804,16 +966,16 @@
     </row>
     <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -836,16 +998,16 @@
     </row>
     <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -870,10 +1032,10 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -896,12 +1058,12 @@
     </row>
     <row r="7" spans="1:26" ht="13.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -924,25 +1086,25 @@
     </row>
     <row r="8" spans="1:26" ht="34.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="1"/>
@@ -966,25 +1128,25 @@
     </row>
     <row r="9" spans="1:26" ht="39.6">
       <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="21"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1006,25 +1168,25 @@
     </row>
     <row r="10" spans="1:26" ht="39.6">
       <c r="A10" s="1"/>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1046,25 +1208,25 @@
     </row>
     <row r="11" spans="1:26" ht="39.6">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="4">
         <v>4</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="4">
         <v>4</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="21"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1086,25 +1248,25 @@
     </row>
     <row r="12" spans="1:26" ht="39.6">
       <c r="A12" s="1"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1126,25 +1288,25 @@
     </row>
     <row r="13" spans="1:26" ht="52.8">
       <c r="A13" s="1"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="4">
         <v>4</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1166,25 +1328,25 @@
     </row>
     <row r="14" spans="1:26" ht="26.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1233,16 +1395,16 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="45.6">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="22"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1264,7 +1426,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="20"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1292,13 +1454,13 @@
     </row>
     <row r="18" spans="1:26" ht="13.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1328,16 +1490,16 @@
     </row>
     <row r="19" spans="1:26" ht="92.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F19" s="4"/>
@@ -1364,13 +1526,13 @@
     </row>
     <row r="20" spans="1:26" ht="26.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1400,7 +1562,7 @@
     </row>
     <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1427,16 +1589,16 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="45.6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1542,15 +1704,17 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="13.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
+    <row r="26" spans="1:26" ht="45.6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1571,10 +1735,12 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="13.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1598,11 +1764,13 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="13.2">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:26" ht="39.6">
+      <c r="A28" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -28535,52 +28703,102 @@
       <c r="Z989" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G25 G29:G989">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G14">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"E"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G28">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="G27:G28">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8 H8 G1:G8 G15:G989">
+  <conditionalFormatting sqref="G27:G28">
     <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"E"</formula>
     </cfRule>
